--- a/public/init_data/teacher_init.xlsx
+++ b/public/init_data/teacher_init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88467EDC-9FE1-4369-9057-2E40AA026688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F8427-ECB9-4A15-8004-79CE20C6F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Thanh Bình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Thị </t>
   </si>
   <si>
     <t>Xuân Hiền</t>
@@ -533,7 +530,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -690,12 +687,6 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>20012016</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
@@ -714,10 +705,10 @@
         <v>20012017</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
@@ -734,10 +725,10 @@
         <v>20012018</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -754,10 +745,10 @@
         <v>20012019</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>14</v>
@@ -774,10 +765,10 @@
         <v>20012020</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>15</v>

--- a/public/init_data/teacher_init.xlsx
+++ b/public/init_data/teacher_init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F8427-ECB9-4A15-8004-79CE20C6F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A661D-CED1-401D-B60C-6B39A20A84AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>STT</t>
   </si>
@@ -56,103 +56,109 @@
     <t>email</t>
   </si>
   <si>
+    <t>ngohuudung@iuh.edu.vn</t>
+  </si>
+  <si>
+    <t>vongoctanphuoc@iuh.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenhuuquang@iuh.edu.vn</t>
+  </si>
+  <si>
+    <t>lethuytrang64@gmail.com</t>
+  </si>
+  <si>
+    <t>ntthanhbinh77@yahoo.com.vn</t>
+  </si>
+  <si>
+    <t>phamthixuanhien@iuh.edu.vn</t>
+  </si>
+  <si>
+    <t>phanthibaotran@gmail.com</t>
+  </si>
+  <si>
+    <t>tuyetk17@gmail.com</t>
+  </si>
+  <si>
+    <t>huynhnam@iuh.edu.vn</t>
+  </si>
+  <si>
+    <t>maso</t>
+  </si>
+  <si>
+    <t>hodem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Ngọc </t>
+  </si>
+  <si>
+    <t>Tấn Phước</t>
+  </si>
+  <si>
+    <t>Kim Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị </t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngô Hữu </t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hữu </t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thùy </t>
+  </si>
+  <si>
+    <t>Xuân Hiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Thị </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Thị </t>
+  </si>
+  <si>
+    <t>Ánh Tuyết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Thị </t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh </t>
+  </si>
+  <si>
+    <t>Nguyễn Thị</t>
+  </si>
+  <si>
     <t>kimchi_12041972@yahoo.mail</t>
   </si>
   <si>
-    <t>ngohuudung@iuh.edu.vn</t>
-  </si>
-  <si>
-    <t>vongoctanphuoc@iuh.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyenhuuquang@iuh.edu.vn</t>
-  </si>
-  <si>
-    <t>lethuytrang64@gmail.com</t>
-  </si>
-  <si>
-    <t>ntthanhbinh77@yahoo.com.vn</t>
-  </si>
-  <si>
-    <t>phamthixuanhien@iuh.edu.vn</t>
-  </si>
-  <si>
-    <t>phanthibaotran@gmail.com</t>
-  </si>
-  <si>
-    <t>tuyetk17@gmail.com</t>
-  </si>
-  <si>
-    <t>huynhnam@iuh.edu.vn</t>
-  </si>
-  <si>
-    <t>maso</t>
-  </si>
-  <si>
-    <t>hodem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Ngọc </t>
-  </si>
-  <si>
-    <t>Tấn Phước</t>
-  </si>
-  <si>
-    <t>Kim Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thị </t>
-  </si>
-  <si>
-    <t>Dũng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngô Hữu </t>
-  </si>
-  <si>
-    <t>Quang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hữu </t>
-  </si>
-  <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Thùy </t>
-  </si>
-  <si>
     <t>Thanh Bình</t>
   </si>
   <si>
-    <t>Xuân Hiền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phạm Thị </t>
-  </si>
-  <si>
     <t>Bảo Trân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Thị </t>
-  </si>
-  <si>
-    <t>Ánh Tuyết</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Thị </t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huỳnh </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,8 +197,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911FCA87-15F1-4ABC-A4FB-DB4A063AD3B9}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -538,8 +544,8 @@
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.21875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
@@ -550,18 +556,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -579,15 +585,15 @@
         <v>20012011</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
         <v>31048</v>
       </c>
       <c r="G2" s="1">
@@ -605,15 +611,15 @@
         <v>20012012</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3">
         <v>31049</v>
       </c>
       <c r="H3" s="1">
@@ -628,15 +634,15 @@
         <v>20012013</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
         <v>31050</v>
       </c>
       <c r="H4" s="1">
@@ -651,15 +657,15 @@
         <v>20012014</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
         <v>31051</v>
       </c>
     </row>
@@ -671,15 +677,15 @@
         <v>20012015</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
         <v>31052</v>
       </c>
     </row>
@@ -687,13 +693,19 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>20012016</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
         <v>31053</v>
       </c>
     </row>
@@ -705,15 +717,15 @@
         <v>20012017</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
         <v>31054</v>
       </c>
     </row>
@@ -725,15 +737,15 @@
         <v>20012018</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3">
         <v>31055</v>
       </c>
     </row>
@@ -745,15 +757,15 @@
         <v>20012019</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3">
         <v>31056</v>
       </c>
     </row>
@@ -765,20 +777,17 @@
         <v>20012020</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3">
         <v>31057</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/init_data/teacher_init.xlsx
+++ b/public/init_data/teacher_init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A661D-CED1-401D-B60C-6B39A20A84AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779BE853-9CE8-4613-ADE3-B01E0E305C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>STT</t>
   </si>
@@ -150,16 +150,43 @@
   </si>
   <si>
     <t>Bảo Trân</t>
+  </si>
+  <si>
+    <t>01/01/1980</t>
+  </si>
+  <si>
+    <t>02/01/1980</t>
+  </si>
+  <si>
+    <t>03/01/1980</t>
+  </si>
+  <si>
+    <t>04/01/1980</t>
+  </si>
+  <si>
+    <t>05/01/1980</t>
+  </si>
+  <si>
+    <t>06/01/1980</t>
+  </si>
+  <si>
+    <t>07/01/1980</t>
+  </si>
+  <si>
+    <t>08/01/1980</t>
+  </si>
+  <si>
+    <t>09/01/1980</t>
+  </si>
+  <si>
+    <t>10/01/1980</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +199,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +231,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +571,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -545,7 +580,7 @@
     <col min="2" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="19.21875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
@@ -567,7 +602,7 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -593,8 +628,8 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3">
-        <v>31048</v>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -619,8 +654,8 @@
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3">
-        <v>31049</v>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -642,8 +677,8 @@
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
-        <v>31050</v>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -665,8 +700,8 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3">
-        <v>31051</v>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -685,8 +720,8 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
-        <v>31052</v>
+      <c r="F6" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -705,8 +740,8 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
-        <v>31053</v>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -725,8 +760,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
-        <v>31054</v>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -745,8 +780,8 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3">
-        <v>31055</v>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -765,8 +800,8 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3">
-        <v>31056</v>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -785,11 +820,12 @@
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3">
-        <v>31057</v>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
